--- a/KBS-M1_Tijdschrijfformulier.xlsx
+++ b/KBS-M1_Tijdschrijfformulier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alwin\Documents\GitHub\KBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Projectlid6!$A$1:$D$47</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -69,12 +74,21 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Kickoff KBS (les 1)</t>
+  </si>
+  <si>
+    <t>Bijeenkomst 1</t>
+  </si>
+  <si>
+    <t>KBS les 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +126,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +164,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -147,6 +176,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -159,83 +199,86 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1572" displayName="Table1572" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D45" totalsRowShown="0">
+  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Activiteit"/>
-    <tableColumn id="2" name="Datum"/>
-    <tableColumn id="3" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" name="Opmerkingen"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Activiteit"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Bestede tijd (minuten)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table15723" displayName="Table15723" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15723" displayName="Table15723" ref="A9:D45" totalsRowShown="0">
+  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Activiteit"/>
-    <tableColumn id="2" name="Datum"/>
-    <tableColumn id="3" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" name="Opmerkingen"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Activiteit"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Bestede tijd (minuten)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table157234" displayName="Table157234" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157234" displayName="Table157234" ref="A9:D45" totalsRowShown="0">
+  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Activiteit"/>
-    <tableColumn id="2" name="Datum"/>
-    <tableColumn id="3" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" name="Opmerkingen"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Activiteit"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Datum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Bestede tijd (minuten)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1572345" displayName="Table1572345" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1572345" displayName="Table1572345" ref="A9:D45" totalsRowShown="0">
+  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Activiteit"/>
-    <tableColumn id="2" name="Datum"/>
-    <tableColumn id="3" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" name="Opmerkingen"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Activiteit"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Bestede tijd (minuten)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table15723456" displayName="Table15723456" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15723456" displayName="Table15723456" ref="A9:D45" totalsRowShown="0">
+  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Activiteit"/>
-    <tableColumn id="2" name="Datum"/>
-    <tableColumn id="3" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" name="Opmerkingen"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Activiteit"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Bestede tijd (minuten)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table157" displayName="Table157" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157" displayName="Table157" ref="A9:D45" totalsRowShown="0">
+  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Activiteit"/>
-    <tableColumn id="2" name="Datum"/>
-    <tableColumn id="3" name="Bestede tijd (minuten)"/>
-    <tableColumn id="4" name="Opmerkingen"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Activiteit"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Bestede tijd (minuten)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Opmerkingen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -284,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +360,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,102 +604,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.95" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <f>(3*3*28)-(SUM(C10:C152)/60)</f>
-        <v>252</v>
-      </c>
-      <c r="C7" t="s">
+        <v>247.5</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -646,23 +747,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,25 +771,25 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,10 +813,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -729,12 +830,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -762,23 +863,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -786,25 +887,25 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -816,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -828,10 +929,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -845,12 +946,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -878,23 +979,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -902,25 +1003,25 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,10 +1045,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -961,12 +1062,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -994,23 +1095,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1018,25 +1119,25 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,10 +1161,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1077,12 +1178,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1111,23 +1212,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.95" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1135,25 +1236,25 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,10 +1278,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1194,12 +1295,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1228,6 +1329,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008036A50752E2824D899ADB653A634107" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2de00fd1d47445d7b69804c94a655239">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fd18b65b941b90f0796ec8ea2bab88d" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1370,16 +1481,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1390,6 +1491,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F02D2AB-3A08-4775-83FF-70C9E461BFAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1408,23 +1526,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>

--- a/KBS-M1_Tijdschrijfformulier.xlsx
+++ b/KBS-M1_Tijdschrijfformulier.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Nog te besteden:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Kickoff KBS (les 1)</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>KBS les 2</t>
+  </si>
+  <si>
+    <t>Alwin Eizema</t>
+  </si>
+  <si>
+    <t>ICTm1m</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,18 +636,24 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -692,7 +701,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="7">
         <v>120</v>
@@ -700,7 +709,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
         <v>30</v>
@@ -708,7 +717,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7">
         <v>120</v>
@@ -1329,16 +1338,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008036A50752E2824D899ADB653A634107" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2de00fd1d47445d7b69804c94a655239">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fd18b65b941b90f0796ec8ea2bab88d" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1481,6 +1480,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1491,23 +1500,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F02D2AB-3A08-4775-83FF-70C9E461BFAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1526,6 +1518,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>

--- a/KBS-M1_Tijdschrijfformulier.xlsx
+++ b/KBS-M1_Tijdschrijfformulier.xlsx
@@ -5,27 +5,27 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alwin\Documents\GitHub\KBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruud Louwerse\Documents\School\Semester 1\KBS\github\KBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
-    <sheet name="Projectlid2" sheetId="8" r:id="rId2"/>
+    <sheet name="Alwin Eizema" sheetId="7" r:id="rId1"/>
+    <sheet name="Ruud Louwerse" sheetId="8" r:id="rId2"/>
     <sheet name="Projectlid3" sheetId="9" r:id="rId3"/>
     <sheet name="Projectlid4" sheetId="10" r:id="rId4"/>
     <sheet name="Projectlid5" sheetId="11" r:id="rId5"/>
     <sheet name="Projectlid6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projectlid1!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Projectlid2!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Alwin Eizema'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Projectlid3!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Projectlid4!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Projectlid6!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ruud Louwerse'!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>ICTm1m</t>
+  </si>
+  <si>
+    <t>Ruud Louwerse</t>
+  </si>
+  <si>
+    <t>ICTM1M</t>
+  </si>
+  <si>
+    <t>Kickoff KBS</t>
   </si>
 </sst>
 </file>
@@ -192,9 +201,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -610,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,16 +793,25 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -804,7 +822,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -816,7 +834,7 @@
       </c>
       <c r="B7">
         <f>252-(SUM(C10:C152)/60)</f>
-        <v>252</v>
+        <v>247.5</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -837,6 +855,30 @@
       </c>
       <c r="D9" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,6 +1380,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008036A50752E2824D899ADB653A634107" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2de00fd1d47445d7b69804c94a655239">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fd18b65b941b90f0796ec8ea2bab88d" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1480,16 +1532,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1500,6 +1542,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F02D2AB-3A08-4775-83FF-70C9E461BFAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1518,23 +1577,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
   <ds:schemaRefs>

--- a/KBS-M1_Tijdschrijfformulier.xlsx
+++ b/KBS-M1_Tijdschrijfformulier.xlsx
@@ -5,23 +5,23 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruud Louwerse\Documents\School\Semester 1\KBS\github\KBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\KBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="13170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="13170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alwin Eizema" sheetId="7" r:id="rId1"/>
     <sheet name="Ruud Louwerse" sheetId="8" r:id="rId2"/>
-    <sheet name="Projectlid3" sheetId="9" r:id="rId3"/>
+    <sheet name="Herman van Kooten" sheetId="9" r:id="rId3"/>
     <sheet name="Projectlid4" sheetId="10" r:id="rId4"/>
     <sheet name="Projectlid5" sheetId="11" r:id="rId5"/>
     <sheet name="Projectlid6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Alwin Eizema'!$A$1:$D$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Projectlid3!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Herman van Kooten'!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Projectlid4!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Projectlid6!$A$1:$D$47</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>Kickoff KBS</t>
+  </si>
+  <si>
+    <t>Herman van  Kooten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,29 +209,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -625,123 +681,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="7" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <f>SUM(C10:C152)/60</f>
         <v>4.5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <f>(3*3*28)-(SUM(C10:C152)/60)</f>
         <v>247.5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -768,129 +824,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <f>SUM(C10:C152)/60</f>
         <v>4.5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <f>252-(SUM(C10:C152)/60)</f>
         <v>247.5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -917,96 +973,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="17" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <f>252-(SUM(C10:C152)/60)</f>
-        <v>252</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="17">
+        <v>247.5</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20">
+        <v>43006</v>
+      </c>
+      <c r="C11" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20">
+        <v>43011</v>
+      </c>
+      <c r="C13" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20">
+        <v>43018</v>
+      </c>
+      <c r="C15" s="17">
+        <v>120</v>
+      </c>
+    </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1047,12 +1143,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1163,12 +1259,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1280,12 +1376,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
